--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -35,13 +35,16 @@
     <t>icon_res</t>
   </si>
   <si>
+    <t>buff_id</t>
+  </si>
+  <si>
     <t>blessing_type</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>details</t>
+    <t>name[language]</t>
+  </si>
+  <si>
+    <t>details[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -62,7 +65,7 @@
     <t>图标名字</t>
   </si>
   <si>
-    <t>馈赠类型</t>
+    <t>馈赠类型1:触发一次 2:Buff持续性</t>
   </si>
   <si>
     <t>名字-中文</t>
@@ -75,6 +78,15 @@
   </si>
   <si>
     <t>增殖-随机复制一个已有的魔物</t>
+  </si>
+  <si>
+    <t>钱多多-每一次击杀有10%的概率多掉落一次魔晶</t>
+  </si>
+  <si>
+    <t>强征健体-所有魔物体力增加10%</t>
+  </si>
+  <si>
+    <t>时光沙漏-所有魔物放置CD减少10%</t>
   </si>
 </sst>
 </file>
@@ -1042,26 +1054,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E52" sqref="E52"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
-    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1080,36 +1092,42 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1120,22 +1138,76 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>1000000001</v>
-      </c>
-      <c r="C4">
+        <v>1000001001</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10000000002</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2000001001</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>10000000005</v>
+      </c>
+      <c r="F5">
+        <v>10000000006</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2000002001</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>10000000007</v>
+      </c>
+      <c r="F6">
+        <v>10000000008</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2000003001</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>10000000003</v>
+      </c>
+      <c r="F7">
+        <v>10000000004</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1159,7 +1231,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:W88">
+  <sortState ref="A4:X88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AbyssalBlessingInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -35,10 +35,7 @@
     <t>icon_res</t>
   </si>
   <si>
-    <t>buff_id</t>
-  </si>
-  <si>
-    <t>blessing_type</t>
+    <t>buff_ids</t>
   </si>
   <si>
     <t>name[language]</t>
@@ -56,16 +53,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
     <t>图标名字</t>
-  </si>
-  <si>
-    <t>馈赠类型1:触发一次 2:Buff持续性</t>
   </si>
   <si>
     <t>名字-中文</t>
@@ -1054,26 +1045,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5"/>
     <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1092,122 +1082,101 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1000001001</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>10000000001</v>
       </c>
       <c r="E4">
-        <v>10000000001</v>
-      </c>
-      <c r="F4">
         <v>10000000002</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2000001001</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>10000000005</v>
       </c>
       <c r="E5">
-        <v>10000000005</v>
-      </c>
-      <c r="F5">
         <v>10000000006</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2000002001</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>10000000007</v>
       </c>
       <c r="E6">
-        <v>10000000007</v>
-      </c>
-      <c r="F6">
         <v>10000000008</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2000003001</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>10000000003</v>
       </c>
       <c r="E7">
-        <v>10000000003</v>
-      </c>
-      <c r="F7">
         <v>10000000004</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
+      <c r="F7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="AbyssalBlessingInfo" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1127,6 +1127,9 @@
       <c r="A4">
         <v>1000001001</v>
       </c>
+      <c r="C4">
+        <v>3000100001</v>
+      </c>
       <c r="D4">
         <v>10000000001</v>
       </c>
@@ -1141,6 +1144,9 @@
       <c r="A5">
         <v>2000001001</v>
       </c>
+      <c r="C5">
+        <v>3000200001</v>
+      </c>
       <c r="D5">
         <v>10000000005</v>
       </c>
@@ -1155,6 +1161,9 @@
       <c r="A6">
         <v>2000002001</v>
       </c>
+      <c r="C6">
+        <v>3000300001</v>
+      </c>
       <c r="D6">
         <v>10000000007</v>
       </c>
@@ -1168,6 +1177,9 @@
     <row r="7" spans="1:6">
       <c r="A7">
         <v>2000003001</v>
+      </c>
+      <c r="C7">
+        <v>3000400001</v>
       </c>
       <c r="D7">
         <v>10000000003</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AbyssalBlessingInfo" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_abyssal_blessing_info[深渊馈赠信息].xlsx
@@ -1050,7 +1050,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1131,10 +1131,10 @@
         <v>3000100001</v>
       </c>
       <c r="D4">
-        <v>10000000001</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>10000000002</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1148,10 +1148,10 @@
         <v>3000200001</v>
       </c>
       <c r="D5">
-        <v>10000000005</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>10000000006</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1165,10 +1165,10 @@
         <v>3000300001</v>
       </c>
       <c r="D6">
-        <v>10000000007</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>10000000008</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1182,10 +1182,10 @@
         <v>3000400001</v>
       </c>
       <c r="D7">
-        <v>10000000003</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>10000000004</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
